--- a/Final Final/Clearance/CrMnTop5.xlsx
+++ b/Final Final/Clearance/CrMnTop5.xlsx
@@ -1,77 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/allisonadams/My files/Thesis/Microplankton/MicroplanktonAnalysis/Final Final/Clearance/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2425B618-8BA0-A649-8B25-E7651018A587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28060" yWindow="1940" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="15">
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>taxaGroup</t>
-  </si>
-  <si>
-    <t>CrMNmlcd</t>
-  </si>
-  <si>
-    <t>LSZ2</t>
-  </si>
-  <si>
-    <t>CenDiaLg</t>
-  </si>
-  <si>
-    <t>CenDiaSm</t>
-  </si>
-  <si>
-    <t>CilLg</t>
-  </si>
-  <si>
-    <t>CilSm</t>
-  </si>
-  <si>
-    <t>FlagSm</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>SJR1</t>
-  </si>
-  <si>
-    <t>SJR2</t>
-  </si>
-  <si>
-    <t>WLD2</t>
-  </si>
-  <si>
-    <t>YBP1</t>
-  </si>
-  <si>
-    <t>YBP2</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -205,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,418 +350,568 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>taxaGroup</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CrMNmlcd</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>LSZ2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CenDiaLg</t>
+        </is>
       </c>
       <c r="C2">
-        <v>53.324006367500623</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>53.32400636750062</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LSZ2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CenDiaSm</t>
+        </is>
       </c>
       <c r="C3">
-        <v>46.630924729988152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>46.63092472998815</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>LSZ2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CilLg</t>
+        </is>
       </c>
       <c r="C4">
-        <v>46.383300599618103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
+        <v>46.3833005996181</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>LSZ2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CilSm</t>
+        </is>
       </c>
       <c r="C5">
         <v>31.89641175614581</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>LSZ2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FlagSm</t>
+        </is>
       </c>
       <c r="C6">
         <v>13.15441419874557</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>LSZ2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="C7">
-        <v>2.8532935488878262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
+        <v>2.853293548887826</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>SJR1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CenDiaLg</t>
+        </is>
       </c>
       <c r="C8">
-        <v>48.915412043839993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
+        <v>48.91541204383999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SJR1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CenDiaSm</t>
+        </is>
       </c>
       <c r="C9">
-        <v>26.777779353426411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
+        <v>26.77777935342641</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SJR1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CilLg</t>
+        </is>
       </c>
       <c r="C10">
         <v>44.49461179139638</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SJR1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CilSm</t>
+        </is>
       </c>
       <c r="C11">
-        <v>43.245667143964837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
+        <v>43.24566714396484</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SJR1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FlagSm</t>
+        </is>
       </c>
       <c r="C12">
         <v>10.94570200089389</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SJR1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="C13">
         <v>-6.121008072853015</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SJR2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CenDiaLg</t>
+        </is>
       </c>
       <c r="C14">
-        <v>38.628327351363488</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
+        <v>38.62832735136349</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SJR2</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CenDiaSm</t>
+        </is>
       </c>
       <c r="C15">
-        <v>18.223164680506599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
+        <v>18.2231646805066</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>SJR2</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CilLg</t>
+        </is>
       </c>
       <c r="C16">
-        <v>35.299573879018439</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+        <v>35.29957387901844</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SJR2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CilSm</t>
+        </is>
       </c>
       <c r="C17">
-        <v>30.394682109555578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
+        <v>30.39468210955558</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>SJR2</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FlagSm</t>
+        </is>
       </c>
       <c r="C18">
-        <v>15.088702368469971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
+        <v>15.08870236846997</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SJR2</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="C19">
-        <v>11.899861483203489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
+        <v>11.89986148320349</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>WLD2</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CenDiaLg</t>
+        </is>
       </c>
       <c r="C20">
-        <v>36.824509089056761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
+        <v>36.82450908905676</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>WLD2</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CenDiaSm</t>
+        </is>
       </c>
       <c r="C21">
-        <v>-6.8504476642554621</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
+        <v>-6.850447664255462</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>WLD2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CilLg</t>
+        </is>
       </c>
       <c r="C22">
-        <v>45.253306006031238</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
+        <v>45.25330600603124</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>WLD2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CilSm</t>
+        </is>
       </c>
       <c r="C23">
         <v>23.69755220416123</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>WLD2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FlagSm</t>
+        </is>
       </c>
       <c r="C24">
-        <v>-0.93461216484694931</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>9</v>
+        <v>-0.9346121648469493</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>WLD2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="C25">
-        <v>-2.5188175683882719</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4</v>
+        <v>-2.518817568388272</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>YBP1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CenDiaLg</t>
+        </is>
       </c>
       <c r="C26">
-        <v>30.227047957333919</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
+        <v>30.22704795733392</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>YBP1</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CenDiaSm</t>
+        </is>
       </c>
       <c r="C27">
-        <v>5.6246558158568556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
+        <v>5.624655815856856</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>YBP1</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CilLg</t>
+        </is>
       </c>
       <c r="C28">
-        <v>33.303722178266433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
+        <v>33.30372217826643</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>YBP1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CilSm</t>
+        </is>
       </c>
       <c r="C29">
-        <v>16.864141223369359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>8</v>
+        <v>16.86414122336936</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>YBP1</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FlagSm</t>
+        </is>
       </c>
       <c r="C30">
-        <v>8.9550439645090165</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>9</v>
+        <v>8.955043964509017</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>YBP1</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="C31">
-        <v>3.9822767067981011</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
+        <v>3.982276706798101</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>YBP2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CenDiaLg</t>
+        </is>
       </c>
       <c r="C32">
-        <v>61.862732682007334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
+        <v>61.86273268200733</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>YBP2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CenDiaSm</t>
+        </is>
       </c>
       <c r="C33">
-        <v>53.314181127165362</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
+        <v>53.31418112716536</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>YBP2</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CilLg</t>
+        </is>
       </c>
       <c r="C34">
-        <v>49.036625744492213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
+        <v>49.03662574449221</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>YBP2</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CilSm</t>
+        </is>
       </c>
       <c r="C35">
-        <v>43.898651207354789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
+        <v>43.89865120735479</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>YBP2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FlagSm</t>
+        </is>
       </c>
       <c r="C36">
         <v>4.985305363606586</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>YBP2</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
       </c>
       <c r="C37">
-        <v>8.2478378559433985</v>
+        <v>8.247837855943398</v>
       </c>
     </row>
   </sheetData>
